--- a/AzureDataEngg-Project/data/Coaches.xlsx
+++ b/AzureDataEngg-Project/data/Coaches.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-DS-2024\AzureDataEngg-Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFBA1E-B593-4381-8547-42578A94AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" r:id="rId3" sheetId="1"/>
+    <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1403,11 +1411,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1419,7 +1426,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1437,18 +1444,326 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1588,7 +1903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1602,7 +1917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1630,7 +1945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1644,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1658,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1672,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1686,7 +2001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1700,7 +2015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1714,7 +2029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1728,7 +2043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1742,7 +2057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1756,7 +2071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1770,7 +2085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1784,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1798,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +2127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1826,7 +2141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1840,7 +2155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1854,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1868,7 +2183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1882,7 +2197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1896,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1910,7 +2225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1924,7 +2239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1938,7 +2253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1952,7 +2267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1966,7 +2281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1980,7 +2295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1994,7 +2309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2008,7 +2323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2022,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2036,7 +2351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2050,7 +2365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2064,7 +2379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2078,7 +2393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2092,7 +2407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2106,7 +2421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2120,7 +2435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2134,7 +2449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2148,7 +2463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2162,7 +2477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2176,7 +2491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -2190,7 +2505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -2204,7 +2519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2218,7 +2533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -2232,7 +2547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -2246,7 +2561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -2260,7 +2575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2274,7 +2589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -2288,7 +2603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -2302,7 +2617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2316,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2330,7 +2645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2344,7 +2659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -2358,7 +2673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -2372,7 +2687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -2386,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -2400,7 +2715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -2414,7 +2729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -2428,7 +2743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -2442,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -2456,7 +2771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2470,7 +2785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2484,7 +2799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -2498,7 +2813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -2512,7 +2827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2526,7 +2841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2540,7 +2855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -2554,7 +2869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -2568,7 +2883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -2582,7 +2897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -2596,7 +2911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -2610,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -2624,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -2638,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -2652,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -2666,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -2680,7 +2995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -2694,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -2708,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -2722,7 +3037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -2736,7 +3051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -2750,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -2764,7 +3079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -2778,7 +3093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -2792,7 +3107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -2806,7 +3121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -2820,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -2834,7 +3149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -2848,7 +3163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -2862,7 +3177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -2876,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -2890,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -2904,7 +3219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -2918,7 +3233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -2932,7 +3247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -2946,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -2960,7 +3275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -2974,7 +3289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -2988,7 +3303,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>173</v>
       </c>
@@ -3002,7 +3317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>174</v>
       </c>
@@ -3016,7 +3331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>175</v>
       </c>
@@ -3030,7 +3345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3044,7 +3359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>177</v>
       </c>
@@ -3058,7 +3373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -3072,7 +3387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -3086,7 +3401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -3100,7 +3415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -3114,7 +3429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -3128,7 +3443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -3142,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -3156,7 +3471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -3170,7 +3485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -3184,7 +3499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -3198,7 +3513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -3212,7 +3527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -3226,7 +3541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>190</v>
       </c>
@@ -3240,7 +3555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -3254,7 +3569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -3268,7 +3583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -3282,7 +3597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -3296,7 +3611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>195</v>
       </c>
@@ -3310,7 +3625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>197</v>
       </c>
@@ -3324,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>198</v>
       </c>
@@ -3338,7 +3653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>199</v>
       </c>
@@ -3352,7 +3667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -3366,7 +3681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -3380,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -3394,7 +3709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -3408,7 +3723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>204</v>
       </c>
@@ -3422,7 +3737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>205</v>
       </c>
@@ -3436,7 +3751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>206</v>
       </c>
@@ -3450,7 +3765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>207</v>
       </c>
@@ -3464,7 +3779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>208</v>
       </c>
@@ -3478,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -3492,7 +3807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -3506,7 +3821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -3520,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>212</v>
       </c>
@@ -3534,7 +3849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>213</v>
       </c>
@@ -3548,7 +3863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -3562,7 +3877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>215</v>
       </c>
@@ -3576,7 +3891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>216</v>
       </c>
@@ -3590,7 +3905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>218</v>
       </c>
@@ -3604,7 +3919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -3618,7 +3933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>220</v>
       </c>
@@ -3632,7 +3947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>221</v>
       </c>
@@ -3646,7 +3961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>222</v>
       </c>
@@ -3660,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>223</v>
       </c>
@@ -3674,7 +3989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>224</v>
       </c>
@@ -3688,7 +4003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>225</v>
       </c>
@@ -3702,7 +4017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>227</v>
       </c>
@@ -3716,7 +4031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>228</v>
       </c>
@@ -3730,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>229</v>
       </c>
@@ -3744,7 +4059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>230</v>
       </c>
@@ -3758,7 +4073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>231</v>
       </c>
@@ -3772,7 +4087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -3786,7 +4101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>233</v>
       </c>
@@ -3800,7 +4115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -3814,7 +4129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>235</v>
       </c>
@@ -3828,7 +4143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -3842,7 +4157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>237</v>
       </c>
@@ -3856,7 +4171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>238</v>
       </c>
@@ -3870,7 +4185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -3884,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>240</v>
       </c>
@@ -3898,7 +4213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>241</v>
       </c>
@@ -3912,7 +4227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>242</v>
       </c>
@@ -3926,7 +4241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>243</v>
       </c>
@@ -3940,7 +4255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>244</v>
       </c>
@@ -3954,7 +4269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -3968,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>246</v>
       </c>
@@ -3982,7 +4297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>247</v>
       </c>
@@ -3996,7 +4311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>248</v>
       </c>
@@ -4010,7 +4325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -4024,7 +4339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>250</v>
       </c>
@@ -4038,7 +4353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>251</v>
       </c>
@@ -4052,7 +4367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -4066,7 +4381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>253</v>
       </c>
@@ -4080,7 +4395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>254</v>
       </c>
@@ -4094,7 +4409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -4108,7 +4423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -4122,7 +4437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -4136,7 +4451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>259</v>
       </c>
@@ -4150,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>260</v>
       </c>
@@ -4164,7 +4479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -4178,7 +4493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -4192,7 +4507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>263</v>
       </c>
@@ -4206,7 +4521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>264</v>
       </c>
@@ -4220,7 +4535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -4234,7 +4549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>266</v>
       </c>
@@ -4248,7 +4563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>267</v>
       </c>
@@ -4262,7 +4577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>268</v>
       </c>
@@ -4276,7 +4591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>269</v>
       </c>
@@ -4290,7 +4605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>270</v>
       </c>
@@ -4304,7 +4619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>271</v>
       </c>
@@ -4318,7 +4633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>272</v>
       </c>
@@ -4332,7 +4647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>274</v>
       </c>
@@ -4346,7 +4661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>275</v>
       </c>
@@ -4360,7 +4675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>276</v>
       </c>
@@ -4374,7 +4689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>277</v>
       </c>
@@ -4388,7 +4703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>278</v>
       </c>
@@ -4402,7 +4717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>279</v>
       </c>
@@ -4416,7 +4731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>280</v>
       </c>
@@ -4430,7 +4745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>281</v>
       </c>
@@ -4444,7 +4759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>282</v>
       </c>
@@ -4458,7 +4773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>283</v>
       </c>
@@ -4472,7 +4787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>284</v>
       </c>
@@ -4486,7 +4801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>285</v>
       </c>
@@ -4500,7 +4815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>286</v>
       </c>
@@ -4514,7 +4829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>287</v>
       </c>
@@ -4528,7 +4843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -4542,7 +4857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>289</v>
       </c>
@@ -4556,7 +4871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>290</v>
       </c>
@@ -4570,7 +4885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>291</v>
       </c>
@@ -4584,7 +4899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>292</v>
       </c>
@@ -4598,7 +4913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>293</v>
       </c>
@@ -4612,7 +4927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>294</v>
       </c>
@@ -4626,7 +4941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>295</v>
       </c>
@@ -4640,7 +4955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>296</v>
       </c>
@@ -4654,7 +4969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>297</v>
       </c>
@@ -4668,7 +4983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>298</v>
       </c>
@@ -4682,7 +4997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>299</v>
       </c>
@@ -4696,7 +5011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -4710,7 +5025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>301</v>
       </c>
@@ -4724,7 +5039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>302</v>
       </c>
@@ -4738,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>303</v>
       </c>
@@ -4752,7 +5067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>304</v>
       </c>
@@ -4766,7 +5081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>305</v>
       </c>
@@ -4780,7 +5095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>306</v>
       </c>
@@ -4794,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>307</v>
       </c>
@@ -4808,7 +5123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>308</v>
       </c>
@@ -4822,7 +5137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>309</v>
       </c>
@@ -4836,7 +5151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>310</v>
       </c>
@@ -4850,7 +5165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>311</v>
       </c>
@@ -4864,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>312</v>
       </c>
@@ -4878,7 +5193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>313</v>
       </c>
@@ -4892,7 +5207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>314</v>
       </c>
@@ -4906,7 +5221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>315</v>
       </c>
@@ -4920,7 +5235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>316</v>
       </c>
@@ -4934,7 +5249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>317</v>
       </c>
@@ -4948,7 +5263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>318</v>
       </c>
@@ -4962,7 +5277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>319</v>
       </c>
@@ -4976,7 +5291,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>320</v>
       </c>
@@ -4990,7 +5305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>321</v>
       </c>
@@ -5004,7 +5319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>322</v>
       </c>
@@ -5018,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>323</v>
       </c>
@@ -5032,7 +5347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>324</v>
       </c>
@@ -5046,7 +5361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>325</v>
       </c>
@@ -5060,7 +5375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>326</v>
       </c>
@@ -5074,7 +5389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>327</v>
       </c>
@@ -5088,7 +5403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>328</v>
       </c>
@@ -5102,7 +5417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>329</v>
       </c>
@@ -5116,7 +5431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>330</v>
       </c>
@@ -5130,7 +5445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>331</v>
       </c>
@@ -5144,7 +5459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>331</v>
       </c>
@@ -5158,7 +5473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>332</v>
       </c>
@@ -5172,7 +5487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>333</v>
       </c>
@@ -5186,7 +5501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>334</v>
       </c>
@@ -5200,7 +5515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>335</v>
       </c>
@@ -5214,7 +5529,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>336</v>
       </c>
@@ -5228,7 +5543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>337</v>
       </c>
@@ -5242,7 +5557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>338</v>
       </c>
@@ -5256,7 +5571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>339</v>
       </c>
@@ -5270,7 +5585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>340</v>
       </c>
@@ -5284,7 +5599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>341</v>
       </c>
@@ -5298,7 +5613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5312,7 +5627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>343</v>
       </c>
@@ -5326,7 +5641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>344</v>
       </c>
@@ -5340,7 +5655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>345</v>
       </c>
@@ -5354,7 +5669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>346</v>
       </c>
@@ -5368,7 +5683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>347</v>
       </c>
@@ -5382,7 +5697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>348</v>
       </c>
@@ -5396,7 +5711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>349</v>
       </c>
@@ -5410,7 +5725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>350</v>
       </c>
@@ -5424,7 +5739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>351</v>
       </c>
@@ -5438,7 +5753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -5452,7 +5767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>353</v>
       </c>
@@ -5466,7 +5781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>354</v>
       </c>
@@ -5480,7 +5795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>355</v>
       </c>
@@ -5494,7 +5809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>356</v>
       </c>
@@ -5508,7 +5823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>357</v>
       </c>
@@ -5522,7 +5837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -5536,7 +5851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>360</v>
       </c>
@@ -5550,7 +5865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>361</v>
       </c>
@@ -5564,7 +5879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -5578,7 +5893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>363</v>
       </c>
@@ -5592,7 +5907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>364</v>
       </c>
@@ -5606,7 +5921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>365</v>
       </c>
@@ -5620,7 +5935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>366</v>
       </c>
@@ -5634,7 +5949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>367</v>
       </c>
@@ -5648,7 +5963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>368</v>
       </c>
@@ -5662,7 +5977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>369</v>
       </c>
@@ -5676,7 +5991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>370</v>
       </c>
@@ -5690,7 +6005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>371</v>
       </c>
@@ -5704,7 +6019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>372</v>
       </c>
@@ -5718,7 +6033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>373</v>
       </c>
@@ -5732,7 +6047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>373</v>
       </c>
@@ -5746,7 +6061,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>374</v>
       </c>
@@ -5760,7 +6075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>374</v>
       </c>
@@ -5774,7 +6089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>375</v>
       </c>
@@ -5788,7 +6103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>376</v>
       </c>
@@ -5802,7 +6117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>377</v>
       </c>
@@ -5816,7 +6131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>378</v>
       </c>
@@ -5830,7 +6145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -5844,7 +6159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>380</v>
       </c>
@@ -5858,7 +6173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>381</v>
       </c>
@@ -5872,7 +6187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>382</v>
       </c>
@@ -5886,7 +6201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -5900,7 +6215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>384</v>
       </c>
@@ -5914,7 +6229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>385</v>
       </c>
@@ -5928,7 +6243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>386</v>
       </c>
@@ -5942,7 +6257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>387</v>
       </c>
@@ -5956,7 +6271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>388</v>
       </c>
@@ -5970,7 +6285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>389</v>
       </c>
@@ -5984,7 +6299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>390</v>
       </c>
@@ -5998,7 +6313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>391</v>
       </c>
@@ -6012,7 +6327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>392</v>
       </c>
@@ -6026,7 +6341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>393</v>
       </c>
@@ -6040,7 +6355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>394</v>
       </c>
@@ -6054,7 +6369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>395</v>
       </c>
@@ -6068,7 +6383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>396</v>
       </c>
@@ -6082,7 +6397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>397</v>
       </c>
@@ -6096,7 +6411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>398</v>
       </c>
@@ -6110,7 +6425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>399</v>
       </c>
@@ -6124,7 +6439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -6138,7 +6453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>401</v>
       </c>
@@ -6152,7 +6467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>402</v>
       </c>
@@ -6166,7 +6481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>403</v>
       </c>
@@ -6180,7 +6495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>404</v>
       </c>
@@ -6194,7 +6509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>405</v>
       </c>
@@ -6208,7 +6523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>406</v>
       </c>
@@ -6222,7 +6537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>407</v>
       </c>
@@ -6236,7 +6551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>408</v>
       </c>
@@ -6250,7 +6565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -6264,7 +6579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>410</v>
       </c>
@@ -6278,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>411</v>
       </c>
@@ -6292,7 +6607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>413</v>
       </c>
@@ -6306,7 +6621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>413</v>
       </c>
@@ -6320,7 +6635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>414</v>
       </c>
@@ -6334,7 +6649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>416</v>
       </c>
@@ -6348,7 +6663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>417</v>
       </c>
@@ -6362,7 +6677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>418</v>
       </c>
@@ -6376,7 +6691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>419</v>
       </c>
@@ -6390,7 +6705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>420</v>
       </c>
@@ -6404,7 +6719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>420</v>
       </c>
@@ -6418,7 +6733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>421</v>
       </c>
@@ -6432,7 +6747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>422</v>
       </c>
@@ -6446,7 +6761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>423</v>
       </c>
@@ -6460,7 +6775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>424</v>
       </c>
@@ -6474,7 +6789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>425</v>
       </c>
@@ -6488,7 +6803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>427</v>
       </c>
@@ -6502,7 +6817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>428</v>
       </c>
@@ -6516,7 +6831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>429</v>
       </c>
@@ -6530,7 +6845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>430</v>
       </c>
@@ -6544,7 +6859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>431</v>
       </c>
@@ -6558,7 +6873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>432</v>
       </c>
@@ -6572,7 +6887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>433</v>
       </c>
@@ -6586,7 +6901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>434</v>
       </c>
@@ -6600,7 +6915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>435</v>
       </c>
@@ -6614,7 +6929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>436</v>
       </c>
@@ -6628,7 +6943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>437</v>
       </c>
@@ -6642,7 +6957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>438</v>
       </c>
@@ -6656,7 +6971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>439</v>
       </c>
@@ -6670,7 +6985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>440</v>
       </c>
@@ -6684,7 +6999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>441</v>
       </c>
@@ -6698,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>442</v>
       </c>
@@ -6712,7 +7027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>443</v>
       </c>
@@ -6726,7 +7041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>443</v>
       </c>
@@ -6740,7 +7055,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>444</v>
       </c>
@@ -6754,7 +7069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>445</v>
       </c>
@@ -6768,7 +7083,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>446</v>
       </c>
@@ -6782,7 +7097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>447</v>
       </c>
@@ -6796,7 +7111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>448</v>
       </c>
@@ -6810,7 +7125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>449</v>
       </c>
@@ -6824,7 +7139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>450</v>
       </c>
@@ -6838,7 +7153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>451</v>
       </c>
@@ -6852,7 +7167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>452</v>
       </c>
@@ -6866,7 +7181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>453</v>
       </c>
@@ -6880,7 +7195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>454</v>
       </c>
@@ -6894,7 +7209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>455</v>
       </c>
@@ -6908,7 +7223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>456</v>
       </c>
@@ -6922,7 +7237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>457</v>
       </c>
@@ -6936,7 +7251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>459</v>
       </c>
@@ -6950,7 +7265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>460</v>
       </c>
@@ -6964,7 +7279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>461</v>
       </c>
@@ -6979,6 +7294,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>